--- a/UG_data_analysis/outputs/punishType/NoIndividual/group4InteractionPun3way_LC.xlsx
+++ b/UG_data_analysis/outputs/punishType/NoIndividual/group4InteractionPun3way_LC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\ownCloud\Papers\Pittsburgh\ug_context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/punishType/NoIndividual/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C60CA9-ABD7-1D45-A28A-E2236EBA7CC0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group4InteractionPun3" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Estimate</t>
   </si>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="12"/>
@@ -758,7 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,11 +774,14 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1134,16 +1138,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="A1:E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1156,8 +1160,24 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" s="4"/>
+      <c r="I1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1173,8 +1193,26 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="K2" s="7">
+        <v>-0.52</v>
+      </c>
+      <c r="L2" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1190,8 +1228,24 @@
       <c r="E3">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="K3" s="12">
+        <v>3.71</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1207,8 +1261,24 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="12">
+        <v>-2.97</v>
+      </c>
+      <c r="K4" s="12">
+        <v>-11.43</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1224,8 +1294,24 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="12">
+        <v>-0.52</v>
+      </c>
+      <c r="K5" s="12">
+        <v>-2</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1241,8 +1327,24 @@
       <c r="E6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2.17</v>
+      </c>
+      <c r="K6" s="12">
+        <v>22.65</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1258,8 +1360,24 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="L7" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1275,8 +1393,24 @@
       <c r="E8">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1292,8 +1426,24 @@
       <c r="E9">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1.46</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1309,8 +1459,24 @@
       <c r="E10">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1326,8 +1492,16 @@
       <c r="E11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1343,8 +1517,26 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="K12" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1360,8 +1552,24 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="12">
+        <v>-0.12</v>
+      </c>
+      <c r="K13" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1377,8 +1585,24 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1394,8 +1618,24 @@
       <c r="E15">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1.21</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1411,8 +1651,24 @@
       <c r="E16">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="12">
+        <v>-0.16</v>
+      </c>
+      <c r="K16" s="12">
+        <v>-1.92</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1428,8 +1684,26 @@
       <c r="E17">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="12">
+        <v>-0.15</v>
+      </c>
+      <c r="K17" s="12">
+        <v>-0.36</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1445,8 +1719,24 @@
       <c r="E18">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="12">
+        <v>-0.26</v>
+      </c>
+      <c r="K18" s="12">
+        <v>-0.63</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1462,8 +1752,24 @@
       <c r="E19">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1479,8 +1785,24 @@
       <c r="E20">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="12">
+        <v>-0.13</v>
+      </c>
+      <c r="K20" s="12">
+        <v>-1.32</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1496,8 +1818,24 @@
       <c r="E21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K21" s="12">
+        <v>-0.79</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1513,8 +1851,26 @@
       <c r="E22">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="K22" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1886,24 @@
       <c r="E23">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="12">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="K23" s="12">
+        <v>-1.37</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1547,8 +1919,24 @@
       <c r="E24">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="K24" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1564,8 +1952,24 @@
       <c r="E25">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="K25" s="12">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1581,8 +1985,24 @@
       <c r="E26">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K26" s="12">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1598,8 +2018,26 @@
       <c r="E27">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="12">
+        <v>-1.33</v>
+      </c>
+      <c r="K27" s="12">
+        <v>-12.91</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1615,8 +2053,24 @@
       <c r="E28">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28" s="5"/>
+      <c r="I28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="12">
+        <v>-1.27</v>
+      </c>
+      <c r="K28" s="12">
+        <v>-11.57</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1632,8 +2086,24 @@
       <c r="E29">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29" s="5"/>
+      <c r="I29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="12">
+        <v>-0.9</v>
+      </c>
+      <c r="K29" s="12">
+        <v>-7.94</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1649,8 +2119,26 @@
       <c r="E30">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="H30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="M30" s="12">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1666,8 +2154,24 @@
       <c r="E31">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="H31" s="5"/>
+      <c r="I31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="K31" s="12">
+        <v>1.73</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="M31" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1683,8 +2187,24 @@
       <c r="E32">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="H32" s="5"/>
+      <c r="I32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>2.06</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1700,8 +2220,26 @@
       <c r="E33">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="12">
+        <v>-0.13</v>
+      </c>
+      <c r="K33" s="12">
+        <v>-2.1</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="M33" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1717,8 +2255,26 @@
       <c r="E34">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="H34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="K34" s="12">
+        <v>1.72</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="M34" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1734,8 +2290,24 @@
       <c r="E35">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H35" s="5"/>
+      <c r="I35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M35" s="12">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17" thickBot="1">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1751,50 +2323,64 @@
       <c r="E36">
         <v>0.19</v>
       </c>
-    </row>
+      <c r="H36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="13">
+        <v>1.57</v>
+      </c>
+      <c r="K36" s="13">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="M36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M9:R45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="M9:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.875" style="1"/>
-    <col min="13" max="13" width="35.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.75" style="1" customWidth="1"/>
-    <col min="15" max="18" width="10.875" style="3"/>
-    <col min="19" max="16384" width="10.875" style="1"/>
+    <col min="3" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="35.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="10.83203125" style="3"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="13:18">
+    <row r="9" spans="13:17">
       <c r="M9" s="4"/>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12" t="s">
+      <c r="O9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="12" t="s">
+      <c r="Q9" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="13:18">
+    <row r="10" spans="13:17">
       <c r="M10" s="5" t="s">
         <v>70</v>
       </c>
@@ -1802,637 +2388,534 @@
         <v>42</v>
       </c>
       <c r="O10" s="7">
-        <v>-0.04</v>
+        <v>-0.52</v>
       </c>
       <c r="P10" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q10" s="7">
-        <v>-0.52</v>
-      </c>
-      <c r="R10" s="7">
         <v>0.61</v>
       </c>
     </row>
-    <row r="11" spans="13:18">
+    <row r="11" spans="13:17">
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="O11" s="12">
+        <v>3.71</v>
+      </c>
+      <c r="P11" s="12">
         <v>0.25</v>
       </c>
-      <c r="Q11" s="7">
-        <v>3.71</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="Q11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="13:18">
+    <row r="12" spans="13:17">
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="7">
-        <v>-2.97</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="O12" s="12">
+        <v>-11.43</v>
+      </c>
+      <c r="P12" s="12">
         <v>0.26</v>
       </c>
-      <c r="Q12" s="7">
-        <v>-11.43</v>
-      </c>
-      <c r="R12" s="7">
+      <c r="Q12" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="13:18">
+    <row r="13" spans="13:17">
       <c r="M13" s="6"/>
       <c r="N13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="7">
-        <v>-0.52</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="O13" s="12">
+        <v>-2</v>
+      </c>
+      <c r="P13" s="12">
         <v>0.26</v>
       </c>
-      <c r="Q13" s="7">
-        <v>-2</v>
-      </c>
-      <c r="R13" s="7">
+      <c r="Q13" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="13:18">
+    <row r="14" spans="13:17">
       <c r="M14" s="6"/>
       <c r="N14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="7">
-        <v>2.17</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="O14" s="12">
+        <v>22.65</v>
+      </c>
+      <c r="P14" s="12">
         <v>0.1</v>
       </c>
-      <c r="Q14" s="7">
-        <v>22.65</v>
-      </c>
-      <c r="R14" s="7">
+      <c r="Q14" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="13:18">
+    <row r="15" spans="13:17">
       <c r="M15" s="6"/>
       <c r="N15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="O15" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="P15" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q15" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="Q15" s="12">
         <v>0.65</v>
       </c>
     </row>
-    <row r="16" spans="13:18">
+    <row r="16" spans="13:17">
       <c r="M16" s="6"/>
       <c r="N16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="O16" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="P16" s="12">
         <v>0.54</v>
       </c>
-      <c r="Q16" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="Q16" s="12">
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" spans="13:18">
+    <row r="17" spans="13:17">
       <c r="M17" s="6"/>
       <c r="N17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="O17" s="12">
+        <v>1.46</v>
+      </c>
+      <c r="P17" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q17" s="7">
-        <v>1.46</v>
-      </c>
-      <c r="R17" s="7">
+      <c r="Q17" s="12">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="13:18">
+    <row r="18" spans="13:17">
       <c r="M18" s="6"/>
       <c r="N18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="P18" s="7">
+      <c r="O18" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="P18" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q18" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="R18" s="7">
+      <c r="Q18" s="12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="13:18">
+    <row r="19" spans="13:17">
       <c r="M19" s="5" t="s">
         <v>56</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="13:18">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="13:17">
       <c r="M20" s="6" t="s">
         <v>60</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="7">
-        <v>1.01</v>
-      </c>
-      <c r="P20" s="7">
+      <c r="O20" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P20" s="12">
         <v>0.4</v>
       </c>
-      <c r="Q20" s="7">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="Q20" s="12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="13:18">
+    <row r="21" spans="13:17">
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="7">
-        <v>-0.12</v>
-      </c>
-      <c r="P21" s="7">
+      <c r="O21" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="P21" s="12">
         <v>0.41</v>
       </c>
-      <c r="Q21" s="7">
-        <v>-0.3</v>
-      </c>
-      <c r="R21" s="7">
+      <c r="Q21" s="12">
         <v>0.76</v>
       </c>
     </row>
-    <row r="22" spans="13:18">
+    <row r="22" spans="13:17">
       <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="P22" s="7">
+      <c r="O22" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="P22" s="12">
         <v>0.41</v>
       </c>
-      <c r="Q22" s="7">
-        <v>1.65</v>
-      </c>
-      <c r="R22" s="7">
+      <c r="Q22" s="12">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="13:18">
+    <row r="23" spans="13:17">
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="P23" s="7">
+      <c r="O23" s="12">
+        <v>1.21</v>
+      </c>
+      <c r="P23" s="12">
         <v>0.1</v>
       </c>
-      <c r="Q23" s="7">
-        <v>1.21</v>
-      </c>
-      <c r="R23" s="7">
+      <c r="Q23" s="12">
         <v>0.23</v>
       </c>
     </row>
-    <row r="24" spans="13:18">
+    <row r="24" spans="13:17">
       <c r="M24" s="6"/>
       <c r="N24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="7">
-        <v>-0.16</v>
-      </c>
-      <c r="P24" s="7">
+      <c r="O24" s="12">
+        <v>-1.92</v>
+      </c>
+      <c r="P24" s="12">
         <v>0.08</v>
       </c>
-      <c r="Q24" s="7">
-        <v>-1.92</v>
-      </c>
-      <c r="R24" s="7">
+      <c r="Q24" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="13:18">
+    <row r="25" spans="13:17">
       <c r="M25" s="6" t="s">
         <v>61</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O25" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="P25" s="7">
+      <c r="O25" s="12">
+        <v>-0.36</v>
+      </c>
+      <c r="P25" s="12">
         <v>0.4</v>
       </c>
-      <c r="Q25" s="7">
-        <v>-0.36</v>
-      </c>
-      <c r="R25" s="7">
+      <c r="Q25" s="12">
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="13:18">
+    <row r="26" spans="13:17">
       <c r="M26" s="6"/>
       <c r="N26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="7">
-        <v>-0.26</v>
-      </c>
-      <c r="P26" s="7">
+      <c r="O26" s="12">
+        <v>-0.63</v>
+      </c>
+      <c r="P26" s="12">
         <v>0.41</v>
       </c>
-      <c r="Q26" s="7">
-        <v>-0.63</v>
-      </c>
-      <c r="R26" s="7">
+      <c r="Q26" s="12">
         <v>0.53</v>
       </c>
     </row>
-    <row r="27" spans="13:18">
+    <row r="27" spans="13:17">
       <c r="M27" s="6"/>
       <c r="N27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="P27" s="7">
+      <c r="O27" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="P27" s="12">
         <v>0.42</v>
       </c>
-      <c r="Q27" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="R27" s="7">
+      <c r="Q27" s="12">
         <v>0.38</v>
       </c>
     </row>
-    <row r="28" spans="13:18">
+    <row r="28" spans="13:17">
       <c r="M28" s="6"/>
       <c r="N28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="7">
-        <v>-0.13</v>
-      </c>
-      <c r="P28" s="7">
+      <c r="O28" s="12">
+        <v>-1.32</v>
+      </c>
+      <c r="P28" s="12">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="7">
-        <v>-1.32</v>
-      </c>
-      <c r="R28" s="7">
+      <c r="Q28" s="12">
         <v>0.19</v>
       </c>
     </row>
-    <row r="29" spans="13:18">
+    <row r="29" spans="13:17">
       <c r="M29" s="6"/>
       <c r="N29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="7">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="P29" s="7">
+      <c r="O29" s="12">
+        <v>-0.79</v>
+      </c>
+      <c r="P29" s="12">
         <v>0.08</v>
       </c>
-      <c r="Q29" s="7">
-        <v>-0.79</v>
-      </c>
-      <c r="R29" s="7">
+      <c r="Q29" s="12">
         <v>0.43</v>
       </c>
     </row>
-    <row r="30" spans="13:18">
+    <row r="30" spans="13:17">
       <c r="M30" s="6" t="s">
         <v>62</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="P30" s="7">
+      <c r="O30" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="P30" s="12">
         <v>0.41</v>
       </c>
-      <c r="Q30" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="R30" s="7">
+      <c r="Q30" s="12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="13:18">
+    <row r="31" spans="13:17">
       <c r="M31" s="6"/>
       <c r="N31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O31" s="7">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="P31" s="7">
+      <c r="O31" s="12">
+        <v>-1.37</v>
+      </c>
+      <c r="P31" s="12">
         <v>0.42</v>
       </c>
-      <c r="Q31" s="7">
-        <v>-1.37</v>
-      </c>
-      <c r="R31" s="7">
+      <c r="Q31" s="12">
         <v>0.17</v>
       </c>
     </row>
-    <row r="32" spans="13:18">
+    <row r="32" spans="13:17">
       <c r="M32" s="6"/>
       <c r="N32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="P32" s="7">
+      <c r="O32" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P32" s="12">
         <v>0.42</v>
       </c>
-      <c r="Q32" s="7">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="R32" s="7">
+      <c r="Q32" s="12">
         <v>0.26</v>
       </c>
     </row>
-    <row r="33" spans="13:18">
+    <row r="33" spans="13:17">
       <c r="M33" s="6"/>
       <c r="N33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O33" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="P33" s="7">
+      <c r="O33" s="12">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="P33" s="12">
         <v>0.11</v>
       </c>
-      <c r="Q33" s="7">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="R33" s="7">
+      <c r="Q33" s="12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="13:18">
+    <row r="34" spans="13:17">
       <c r="M34" s="6"/>
       <c r="N34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="7">
-        <v>-0.1</v>
-      </c>
-      <c r="P34" s="7">
+      <c r="O34" s="12">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="P34" s="12">
         <v>0.09</v>
       </c>
-      <c r="Q34" s="7">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="R34" s="7">
+      <c r="Q34" s="12">
         <v>0.26</v>
       </c>
     </row>
-    <row r="35" spans="13:18">
+    <row r="35" spans="13:17">
       <c r="M35" s="5" t="s">
         <v>59</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="7">
-        <v>-1.33</v>
-      </c>
-      <c r="P35" s="7">
+      <c r="O35" s="12">
+        <v>-12.91</v>
+      </c>
+      <c r="P35" s="12">
         <v>0.1</v>
       </c>
-      <c r="Q35" s="7">
-        <v>-12.91</v>
-      </c>
-      <c r="R35" s="7">
+      <c r="Q35" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="13:18">
+    <row r="36" spans="13:17">
       <c r="M36" s="5"/>
       <c r="N36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O36" s="7">
-        <v>-1.27</v>
-      </c>
-      <c r="P36" s="7">
+      <c r="O36" s="12">
+        <v>-11.57</v>
+      </c>
+      <c r="P36" s="12">
         <v>0.11</v>
       </c>
-      <c r="Q36" s="7">
-        <v>-11.57</v>
-      </c>
-      <c r="R36" s="7">
+      <c r="Q36" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="13:18">
+    <row r="37" spans="13:17">
       <c r="M37" s="5"/>
       <c r="N37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O37" s="7">
-        <v>-0.9</v>
-      </c>
-      <c r="P37" s="7">
+      <c r="O37" s="12">
+        <v>-7.94</v>
+      </c>
+      <c r="P37" s="12">
         <v>0.11</v>
       </c>
-      <c r="Q37" s="7">
-        <v>-7.94</v>
-      </c>
-      <c r="R37" s="7">
+      <c r="Q37" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="13:18">
+    <row r="38" spans="13:17">
       <c r="M38" s="5" t="s">
         <v>58</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="P38" s="12">
         <v>0.08</v>
       </c>
-      <c r="P38" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="R38" s="7">
+      <c r="Q38" s="12">
         <v>0.34</v>
       </c>
     </row>
-    <row r="39" spans="13:18">
+    <row r="39" spans="13:17">
       <c r="M39" s="5"/>
       <c r="N39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O39" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="P39" s="7">
+      <c r="O39" s="12">
+        <v>1.73</v>
+      </c>
+      <c r="P39" s="12">
         <v>0.09</v>
       </c>
-      <c r="Q39" s="7">
-        <v>1.73</v>
-      </c>
-      <c r="R39" s="7">
+      <c r="Q39" s="12">
         <v>0.08</v>
       </c>
     </row>
-    <row r="40" spans="13:18">
+    <row r="40" spans="13:17">
       <c r="M40" s="5"/>
       <c r="N40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O40" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="P40" s="7">
+      <c r="O40" s="12">
+        <v>2.06</v>
+      </c>
+      <c r="P40" s="12">
         <v>0.1</v>
       </c>
-      <c r="Q40" s="7">
-        <v>2.06</v>
-      </c>
-      <c r="R40" s="7">
+      <c r="Q40" s="12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="13:18">
+    <row r="41" spans="13:17">
       <c r="M41" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O41" s="7">
-        <v>-0.13</v>
-      </c>
-      <c r="P41" s="7">
+      <c r="O41" s="12">
+        <v>-2.1</v>
+      </c>
+      <c r="P41" s="12">
         <v>0.06</v>
       </c>
-      <c r="Q41" s="7">
-        <v>-2.1</v>
-      </c>
-      <c r="R41" s="7">
+      <c r="Q41" s="12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="13:18">
+    <row r="42" spans="13:17">
       <c r="M42" s="5" t="s">
         <v>63</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O42" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="P42" s="7">
+      <c r="O42" s="12">
+        <v>1.72</v>
+      </c>
+      <c r="P42" s="12">
         <v>0.09</v>
       </c>
-      <c r="Q42" s="7">
-        <v>1.72</v>
-      </c>
-      <c r="R42" s="7">
+      <c r="Q42" s="12">
         <v>0.09</v>
       </c>
     </row>
-    <row r="43" spans="13:18">
+    <row r="43" spans="13:17">
       <c r="M43" s="5"/>
       <c r="N43" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="P43" s="7">
+      <c r="O43" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="P43" s="12">
         <v>0.1</v>
       </c>
-      <c r="Q43" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="R43" s="7">
+      <c r="Q43" s="12">
         <v>0.67</v>
       </c>
     </row>
-    <row r="44" spans="13:18" ht="19.5" thickBot="1">
+    <row r="44" spans="13:17" ht="20" thickBot="1">
       <c r="M44" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N44" s="9"/>
-      <c r="O44" s="10">
-        <v>1.57</v>
-      </c>
-      <c r="P44" s="10">
+      <c r="O44" s="13">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="P44" s="13">
         <v>0.35</v>
       </c>
-      <c r="Q44" s="10">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="R44" s="10">
+      <c r="Q44" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="13:18" ht="19.5" thickTop="1">
+    <row r="45" spans="13:17" ht="20" thickTop="1">
       <c r="M45" s="2"/>
     </row>
   </sheetData>

--- a/UG_data_analysis/outputs/punishType/NoIndividual/group4InteractionPun3way_LC.xlsx
+++ b/UG_data_analysis/outputs/punishType/NoIndividual/group4InteractionPun3way_LC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/punishType/NoIndividual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C8B69B-F15C-134A-9448-12B897261CF1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1E393A-EC75-8943-968E-7FD226D7BCFE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12140" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group4InteractionPun3" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
   <si>
     <t>Estimate</t>
   </si>
@@ -123,13 +123,25 @@
   </si>
   <si>
     <t>Main effects</t>
+  </si>
+  <si>
+    <t>ReappraisalDirectionResourcesRepresources:scale(fairLR):scale(totalStake)</t>
+  </si>
+  <si>
+    <t>&lt; .001</t>
+  </si>
+  <si>
+    <t>Resources × Fairness × Stake</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +297,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -648,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -672,6 +691,33 @@
     </xf>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1028,34 +1074,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:Q52"/>
+  <dimension ref="B2:N52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="35.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" style="1" customWidth="1"/>
-    <col min="15" max="17" width="10.83203125" style="3"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="65" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="10.83203125" style="3"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:11">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:11">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:11">
       <c r="B4" s="4"/>
       <c r="C4" s="10" t="s">
         <v>2</v>
@@ -1069,8 +1116,10 @@
       <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1084,10 +1133,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F5" s="7">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1098,11 +1149,13 @@
       <c r="E6" s="12">
         <v>0.25</v>
       </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
@@ -1113,11 +1166,13 @@
       <c r="E7" s="12">
         <v>0.26</v>
       </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="F7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>8</v>
@@ -1129,10 +1184,12 @@
         <v>0.26</v>
       </c>
       <c r="F8" s="12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>9</v>
@@ -1143,11 +1200,13 @@
       <c r="E9" s="12">
         <v>0.1</v>
       </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="F9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>20</v>
@@ -1158,11 +1217,13 @@
       <c r="E10" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F10" s="12">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="F10" s="14">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
@@ -1173,11 +1234,13 @@
       <c r="E11" s="12">
         <v>0.54</v>
       </c>
-      <c r="F11" s="12">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="F11" s="14">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -1188,11 +1251,13 @@
       <c r="E12" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F12" s="12">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="F12" s="14">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>13</v>
@@ -1203,20 +1268,24 @@
       <c r="E13" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F13" s="12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="F13" s="14">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="F14" s="14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1229,11 +1298,11 @@
       <c r="E15" s="12">
         <v>0.4</v>
       </c>
-      <c r="F15" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="F15" s="14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>7</v>
@@ -1244,11 +1313,11 @@
       <c r="E16" s="12">
         <v>0.41</v>
       </c>
-      <c r="F16" s="12">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="F16" s="14">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
         <v>8</v>
@@ -1259,11 +1328,11 @@
       <c r="E17" s="12">
         <v>0.41</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:11">
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
         <v>9</v>
@@ -1274,11 +1343,11 @@
       <c r="E18" s="12">
         <v>0.1</v>
       </c>
-      <c r="F18" s="12">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="F18" s="14">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
         <v>20</v>
@@ -1289,11 +1358,11 @@
       <c r="E19" s="12">
         <v>0.08</v>
       </c>
-      <c r="F19" s="12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="F19" s="14">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1306,11 +1375,11 @@
       <c r="E20" s="12">
         <v>0.4</v>
       </c>
-      <c r="F20" s="12">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="F20" s="14">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
         <v>7</v>
@@ -1321,11 +1390,11 @@
       <c r="E21" s="12">
         <v>0.41</v>
       </c>
-      <c r="F21" s="12">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="F21" s="14">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
         <v>8</v>
@@ -1336,11 +1405,13 @@
       <c r="E22" s="12">
         <v>0.42</v>
       </c>
-      <c r="F22" s="12">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="F22" s="14">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
         <v>9</v>
@@ -1351,11 +1422,13 @@
       <c r="E23" s="12">
         <v>0.1</v>
       </c>
-      <c r="F23" s="12">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="F23" s="14">
+        <v>0.186</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -1366,11 +1439,13 @@
       <c r="E24" s="12">
         <v>0.08</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="14">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
@@ -1383,11 +1458,13 @@
       <c r="E25" s="12">
         <v>0.41</v>
       </c>
-      <c r="F25" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="F25" s="14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
         <v>7</v>
@@ -1398,11 +1475,13 @@
       <c r="E26" s="12">
         <v>0.42</v>
       </c>
-      <c r="F26" s="12">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="F26" s="14">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
         <v>8</v>
@@ -1413,11 +1492,13 @@
       <c r="E27" s="12">
         <v>0.42</v>
       </c>
-      <c r="F27" s="12">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="F27" s="14">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
         <v>9</v>
@@ -1428,11 +1509,13 @@
       <c r="E28" s="12">
         <v>0.11</v>
       </c>
-      <c r="F28" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="F28" s="14">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>10</v>
@@ -1443,11 +1526,13 @@
       <c r="E29" s="12">
         <v>0.09</v>
       </c>
-      <c r="F29" s="12">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="F29" s="14">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
@@ -1460,11 +1545,13 @@
       <c r="E30" s="12">
         <v>0.1</v>
       </c>
-      <c r="F30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="F30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>16</v>
@@ -1475,11 +1562,13 @@
       <c r="E31" s="12">
         <v>0.11</v>
       </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="F31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
         <v>17</v>
@@ -1490,11 +1579,13 @@
       <c r="E32" s="12">
         <v>0.11</v>
       </c>
-      <c r="F32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="F32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="5" t="s">
         <v>21</v>
       </c>
@@ -1507,11 +1598,13 @@
       <c r="E33" s="12">
         <v>0.08</v>
       </c>
-      <c r="F33" s="12">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="F33" s="14">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
         <v>29</v>
@@ -1522,11 +1615,13 @@
       <c r="E34" s="12">
         <v>0.09</v>
       </c>
-      <c r="F34" s="12">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="F34" s="14">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
         <v>30</v>
@@ -1537,15 +1632,17 @@
       <c r="E35" s="12">
         <v>0.1</v>
       </c>
-      <c r="F35" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="5" t="s">
+      <c r="F35" s="14">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="12">
@@ -1554,15 +1651,17 @@
       <c r="E36" s="12">
         <v>0.06</v>
       </c>
-      <c r="F36" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="5" t="s">
+      <c r="F36" s="14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="12">
@@ -1571,13 +1670,15 @@
       <c r="E37" s="12">
         <v>0.09</v>
       </c>
-      <c r="F37" s="12">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6" t="s">
+      <c r="F37" s="14">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="19"/>
+      <c r="C38" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="12">
@@ -1586,67 +1687,81 @@
       <c r="E38" s="12">
         <v>0.1</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="14">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="20" thickBot="1">
-      <c r="B39" s="8" t="s">
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E39" s="17">
+        <v>1.32</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.187</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="2:11" ht="20" thickBot="1">
+      <c r="B40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="13">
+      <c r="C40" s="18"/>
+      <c r="D40" s="13">
         <v>4.4400000000000004</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>0.35</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="20" thickTop="1">
-      <c r="B40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:11" ht="20" thickTop="1">
+      <c r="B41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:11">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:11">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:11">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:11">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:11">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:11">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:11">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1678,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H37"/>
+  <dimension ref="C1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2343,6 +2458,23 @@
       </c>
     </row>
     <row r="37" spans="3:8" ht="17" thickTop="1"/>
+    <row r="38" spans="3:8">
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F38">
+        <v>1.32</v>
+      </c>
+      <c r="G38">
+        <v>0.187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
